--- a/data/long_razon/P23_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_3-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-30,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 9,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 66,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 38,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 31,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 22,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 82,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 21,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 37,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 66,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 45,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 19,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-24,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 12,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 52,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 22,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 30,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 26,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-39,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,53; -14,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 17,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 101,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 23,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 1,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 40,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 69,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 29,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 22,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 23,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 29,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 46,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 194,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 63,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 91,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 29,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 97,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-19,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-32,14; -1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 20,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 10,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 9,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_3-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.3362004911957998</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.120788750750536</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1779040476740471</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.03172237417346785</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.141379636388357</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2657659113878799</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.7038806801689454</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.4877774152569298</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2466864741717432</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.1978329345086844</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2247359314386724</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.2121445916876015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6319719332880216</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4663144447691443</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6103958127761284</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.524859687818372</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4600603316208113</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5641747117916694</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.06732184882970765</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2171529585201967</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4665030291806814</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.4657252364490989</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1545268354312894</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2948160610906345</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.1415044418725197</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7559217399401851</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.7155056692526073</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.132393211557174</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3169766591748708</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.189916426860569</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.86799511188178</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.773265117547254</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.0476436643987937</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.1706041405607887</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.8149170497492066</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.013689473190152</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.04914593353537713</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2286513974577667</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6183681720192364</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.01848298697125226</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.09599414821524097</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1661951075961992</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07287180340566674</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.3394661669494705</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.0197518775715897</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.06685734418664745</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.3442637707961734</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1321171107851291</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3159903483050745</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5399869262554521</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1021798217588725</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5607719561383486</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3873711955424338</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1687254948805053</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2804246114268302</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2388085715834634</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.268181647946148</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3354432826478092</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.08317981660227868</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3217513180435648</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.7608772504013867</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2224916881545199</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.128715395192673</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.532291890424843</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3345350990508065</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.605140845660888</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6690918288507532</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.233535900140078</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.4356379854739755</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.212077844540442</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.020999840825161</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.8569553985054956</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2270098775542117</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.04273868655976031</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.01978332610957867</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2196877590780152</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.04295854157952315</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.02730716222322003</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2337728237330623</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.08043676286494129</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1335256963604155</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.007166452051083926</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.1318762994996288</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.09688412243924485</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4782172969698444</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2392465418473458</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3344746180630521</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5144995105127814</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2680076908274847</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2363149440433605</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4267954116184513</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2898511041501715</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3100608439171217</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1833499527526599</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3188140370121654</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3322651137445072</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1024781838518659</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5202999727294323</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3982196243128446</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2484047729594707</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2752226907579932</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.268359167206029</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.04190880781148815</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.7226432954087945</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1040969033280393</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.2578557842226764</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1003860367555942</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.271495822030149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.3993649296735091</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1295860765358235</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09625032728132726</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.08894063206645503</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4734859218615353</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1781257934680181</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2803659006690334</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1588188302350032</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.01382029279935042</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1554809364020431</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.08777387567822008</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1228880130461307</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.562566405800027</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3855626582187417</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3933764587620636</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4115752157640231</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1031059224659499</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3677893851645316</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.0533850936210857</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4425854501802647</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2187048579801366</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3086077958048985</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1403376961942118</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3677749482342589</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.1454841102414287</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1910415701636538</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2456793567167415</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4095475327492026</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9471238712620147</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.04585823434842418</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.7066705621665439</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2357153917757484</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2070877082583619</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.02958446646967082</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.350123886477978</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.1903655261450653</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.05176379421293838</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.1967509175658642</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2852507077536224</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.317303818380295</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.1000608002971098</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.1350321275763184</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.3223828807864972</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.3247616723393951</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.0743294732650808</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.007167921561794982</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.04709985477706108</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.03699672415918723</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.3386879221170701</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1897715865926162</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5550323856108632</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6053071870304207</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.397292003595552</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4032142932442411</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.1506706163351104</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1550490991230314</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.2808844637391514</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2125183676727846</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.3078964824720469</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.3002440780653159</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.3557168838443909</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.701561315886811</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.09323123523691222</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.1726537979445462</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.3563881612432632</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.1864163022244</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.120395233614221</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.178366040536498</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.2141626628316219</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.2751715450540771</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.3071530752251885</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.3387239211195302</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.1747483654315826</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.9905285300836807</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.516382429847291</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.189296379043479</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.02191857411369478</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.03065701282013065</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.5744038142820499</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.6276276699002651</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.08506409945062898</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.3563342542228666</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.8858831891072099</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.2059787767613898</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.5900633797774965</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2476360501848054</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3171870753505318</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5742478948300788</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.3850551207828053</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3533014809864518</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.1001467796251474</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1273022320912251</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.3890076478424115</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.007572753129961184</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.1754728022632596</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.275802518004961</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.5436659265819784</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.309265416922936</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>4.099128888559656</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.5812601220771887</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.4557342432489694</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.5809167586989363</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.811988522768468</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.371033175503725</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.3247380450370153</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.8829766283456262</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>2.055911951018135</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.9813988581382039</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.2064593336531902</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02723619595336816</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.09825692350739977</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.1280877705010715</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.01955264276295464</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.06904117498075588</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.2039776715312975</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.2321282914334983</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.09621109388495951</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.02340140715542544</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.1512645030861129</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.02641652401843256</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3438413140475777</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.1355430867857864</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1038648212927651</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.3085673902843309</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.127784330304143</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1840004930331607</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.02427689807926926</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.008337201618346519</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.1990946648380941</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1222893794797631</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.01356362134571717</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1263657512044859</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.03049481658959158</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2242003333420989</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3534980005179162</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1202575367081503</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1636524759626115</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.06490677535751081</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.4258938448664864</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.5013863123990115</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.01601452871769774</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.0876851606302603</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.3065054889786336</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.2159320688183052</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
